--- a/WelcomeGuestspartners.xlsx
+++ b/WelcomeGuestspartners.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\BEMO\9. Welcome guestspartners to the company\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\drive-download-20250921T042905Z-1-001\WelcomeGuestspartnersToTheCompany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63344F-DDD1-4302-9818-772126CDBCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7273AA-36C1-4F7D-95A6-B306045C4B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" xr2:uid="{719E5D2F-C632-4960-9266-638D7C9B24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome guestspartners" sheetId="1" r:id="rId1"/>
-    <sheet name="Viet" sheetId="5" r:id="rId2"/>
+    <sheet name="Files" sheetId="5" r:id="rId2"/>
     <sheet name="Sum" sheetId="6" r:id="rId3"/>
     <sheet name="Ramdom" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ramdom!$B$3:$F$295</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$C$1:$F$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Welcome guestspartners'!$A$3:$H$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Welcome guestspartners'!$A$3:$F$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="296">
   <si>
     <t>Sentence</t>
   </si>
@@ -88,18 +88,6 @@
     <t>Phon</t>
   </si>
   <si>
-    <t>MP4</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>Doc</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Struc</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>3.6</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>TOPIC: WELCOME GUESTSPARTNERS TO THE COMPANY</t>
   </si>
   <si>
@@ -914,13 +899,49 @@
   </si>
   <si>
     <t>B. No problem at all. I wasn’t sure you’d be able to find my office by yourself.</t>
+  </si>
+  <si>
+    <t>https://luandai123.github.io/english_Business-WelcomeGuestspartners/</t>
+  </si>
+  <si>
+    <t>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners-Viet-1.1-1.14.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners-Viet-2.1-2.7.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners-Viet-3.1-3.11.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners-Viet-4.1-4.4.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners-Viet-full.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners.docx</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners.mp3</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners.mp4</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners.xlsx</t>
+  </si>
+  <si>
+    <t>WelcomeGuestspartners.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,14 +981,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -989,7 +1002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1036,27 +1049,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1106,8 +1104,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,18 +1112,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,9 +1154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1208,7 +1194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1314,7 +1300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1456,7 +1442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,11 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C9D1B-A452-401C-9733-8750E50DAAFC}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:H115"/>
+  <dimension ref="A2:F115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1478,21 +1463,22 @@
     <col min="3" max="3" width="8.8984375" style="14" customWidth="1"/>
     <col min="4" max="4" width="90.59765625" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.8984375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="40.69921875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="61.19921875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="20"/>
-    <col min="10" max="10" width="25.19921875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="20"/>
+    <col min="6" max="6" width="64" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="20"/>
+    <col min="8" max="8" width="25.19921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1508,2860 +1494,2091 @@
       <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="19" t="str">
-        <f>IF(G4="","","https://docs.google.com/uc?export=download&amp;id="&amp;G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="22" t="str">
-        <f t="shared" ref="G4:G12" si="0">IFERROR(LEFT(RIGHT(H4,LEN(H4)-32),LEN(RIGHT(H4,LEN(H4)-32))-20),"")</f>
-        <v/>
-      </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="str">
-        <f t="shared" ref="F5:F68" si="1">IF(G5="","","https://docs.google.com/uc?export=download&amp;id="&amp;G5)</f>
-        <v/>
-      </c>
-      <c r="G5" s="22" t="str">
-        <f t="shared" ref="G5:G68" si="2">IFERROR(LEFT(RIGHT(H5,LEN(H5)-32),LEN(RIGHT(H5,LEN(H5)-32))-20),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>VLOOKUP(D6,Sheet2!A:B,2,0)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>18</v>
+      <c r="B6" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G6" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>18</v>
+        <f>+$F$2&amp;B6&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.1.mp3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>19</v>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>VLOOKUP(D9,Sheet2!A:B,2,0)</f>
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>19</v>
+      <c r="B9" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>19</v>
+        <f>+$F$2&amp;B9&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.2.mp3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>20</v>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G11" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f>VLOOKUP(D12,Sheet2!A:B,2,0)</f>
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>20</v>
+      <c r="B12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>20</v>
+        <f>+$F$2&amp;B12&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.3.mp3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>108</v>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f>VLOOKUP(D15,Sheet2!A:B,2,0)</f>
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>108</v>
+      <c r="B15" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>108</v>
+        <f>+$F$2&amp;B15&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.4.mp3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="23" t="s">
-        <v>109</v>
+      <c r="B17" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <f>VLOOKUP(D18,Sheet2!A:B,2,0)</f>
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>109</v>
+      <c r="B18" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>109</v>
+        <f>+$F$2&amp;B18&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.5.mp3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>110</v>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <f>VLOOKUP(D21,Sheet2!A:B,2,0)</f>
         <v>6</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>110</v>
+      <c r="B21" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>110</v>
+        <f>+$F$2&amp;B21&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.6.mp3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>111</v>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <f>VLOOKUP(D24,Sheet2!A:B,2,0)</f>
         <v>7</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>111</v>
+      <c r="B24" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>111</v>
+        <f>+$F$2&amp;B24&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.7.mp3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>112</v>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <f>VLOOKUP(D27,Sheet2!A:B,2,0)</f>
         <v>8</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>112</v>
+      <c r="B27" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>112</v>
+        <f>+$F$2&amp;B27&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.8.mp3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>113</v>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <f>VLOOKUP(D30,Sheet2!A:B,2,0)</f>
         <v>9</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>113</v>
+      <c r="B30" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>113</v>
+        <f>+$F$2&amp;B30&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.9.mp3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>114</v>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <f>VLOOKUP(D33,Sheet2!A:B,2,0)</f>
         <v>10</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>114</v>
+      <c r="B33" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>114</v>
+        <f>+$F$2&amp;B33&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.10.mp3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>115</v>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <f>VLOOKUP(D36,Sheet2!A:B,2,0)</f>
         <v>11</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>115</v>
+      <c r="B36" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
-        <v>115</v>
+        <f>+$F$2&amp;B36&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.11.mp3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
-        <v>116</v>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <f>VLOOKUP(D39,Sheet2!A:B,2,0)</f>
         <v>12</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>116</v>
+      <c r="B39" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>116</v>
+        <f>+$F$2&amp;B39&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.12.mp3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
-        <v>117</v>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <f>VLOOKUP(D42,Sheet2!A:B,2,0)</f>
         <v>13</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>117</v>
+      <c r="B42" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>117</v>
+        <f>+$F$2&amp;B42&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.13.mp3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>118</v>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <f>VLOOKUP(D45,Sheet2!A:B,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>118</v>
+      <c r="B45" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
-        <v>118</v>
+        <f>+$F$2&amp;B45&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-1.14.mp3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
         <v>2</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
-        <v>21</v>
-      </c>
       <c r="C48" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <f>VLOOKUP(D49,Sheet2!A:B,2,0)</f>
         <v>15</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>21</v>
+      <c r="B49" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
-        <v>21</v>
+        <f>+$F$2&amp;B49&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.1.mp3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
-        <v>22</v>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <f>VLOOKUP(D52,Sheet2!A:B,2,0)</f>
         <v>16</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>22</v>
+      <c r="B52" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
-        <v>22</v>
+        <f>+$F$2&amp;B52&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.2.mp3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
-        <v>23</v>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <f>VLOOKUP(D55,Sheet2!A:B,2,0)</f>
         <v>17</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>23</v>
+      <c r="B55" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
-        <v>23</v>
+        <f>+$F$2&amp;B55&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.3.mp3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>24</v>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <f>VLOOKUP(D58,Sheet2!A:B,2,0)</f>
         <v>18</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>24</v>
+      <c r="B58" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="s">
-        <v>24</v>
+        <f>+$F$2&amp;B58&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.4.mp3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="s">
-        <v>25</v>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G60" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <f>VLOOKUP(D61,Sheet2!A:B,2,0)</f>
         <v>19</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>25</v>
+      <c r="B61" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G61" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="23" t="s">
-        <v>25</v>
+        <f>+$F$2&amp;B61&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.5.mp3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G62" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="23" t="s">
-        <v>26</v>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <f>VLOOKUP(D64,Sheet2!A:B,2,0)</f>
         <v>20</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>26</v>
+      <c r="B64" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G64" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23" t="s">
-        <v>26</v>
+        <f>+$F$2&amp;B64&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.6.mp3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G65" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="23" t="s">
-        <v>27</v>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G66" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <f>VLOOKUP(D67,Sheet2!A:B,2,0)</f>
         <v>21</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>27</v>
+      <c r="B67" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G67" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="23" t="s">
-        <v>27</v>
+        <f>+$F$2&amp;B67&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-2.7.mp3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G68" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
         <v>3</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="19" t="str">
-        <f t="shared" ref="F69:F115" si="3">IF(G69="","","https://docs.google.com/uc?export=download&amp;id="&amp;G69)</f>
-        <v/>
-      </c>
-      <c r="G69" s="22" t="str">
-        <f t="shared" ref="G69:G115" si="4">IFERROR(LEFT(RIGHT(H69,LEN(H69)-32),LEN(RIGHT(H69,LEN(H69)-32))-20),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
-        <v>28</v>
+        <v>228</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F70" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G70" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <f>VLOOKUP(D71,Sheet2!A:B,2,0)</f>
         <v>22</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>28</v>
+      <c r="B71" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G71" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
-        <v>28</v>
+        <f>+$F$2&amp;B71&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.1.mp3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G72" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
-        <v>29</v>
+      <c r="F72" s="19"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G73" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <f>VLOOKUP(D74,Sheet2!A:B,2,0)</f>
         <v>23</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>29</v>
+      <c r="B74" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G74" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="23" t="s">
-        <v>29</v>
+        <f>+$F$2&amp;B74&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.2.mp3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G75" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="23" t="s">
-        <v>30</v>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G76" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <f>VLOOKUP(D77,Sheet2!A:B,2,0)</f>
         <v>24</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>30</v>
+      <c r="B77" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G77" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="s">
-        <v>30</v>
+        <f>+$F$2&amp;B77&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.3.mp3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G78" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="23" t="s">
-        <v>31</v>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G79" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <f>VLOOKUP(D80,Sheet2!A:B,2,0)</f>
         <v>25</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>31</v>
+      <c r="B80" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G80" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="23" t="s">
-        <v>31</v>
+        <f>+$F$2&amp;B80&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.4.mp3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G81" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="s">
-        <v>32</v>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G82" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="19"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <f>VLOOKUP(D83,Sheet2!A:B,2,0)</f>
         <v>26</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>32</v>
+      <c r="B83" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G83" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
-        <v>32</v>
+        <f>+$F$2&amp;B83&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.5.mp3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G84" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
-        <v>33</v>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G85" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <f>VLOOKUP(D86,Sheet2!A:B,2,0)</f>
         <v>27</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>33</v>
+      <c r="B86" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G86" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
-        <v>33</v>
+        <f>+$F$2&amp;B86&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.6.mp3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G87" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="23" t="s">
-        <v>119</v>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E88" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G88" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <f>VLOOKUP(D89,Sheet2!A:B,2,0)</f>
         <v>28</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>119</v>
+      <c r="B89" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G89" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="23" t="s">
-        <v>119</v>
+        <f>+$F$2&amp;B89&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.7.mp3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G90" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="23" t="s">
-        <v>120</v>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E91" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G91" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <f>VLOOKUP(D92,Sheet2!A:B,2,0)</f>
         <v>29</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>120</v>
+      <c r="B92" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G92" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
-        <v>120</v>
+        <f>+$F$2&amp;B92&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.8.mp3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G93" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="23" t="s">
-        <v>121</v>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G94" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <f>VLOOKUP(D95,Sheet2!A:B,2,0)</f>
         <v>30</v>
       </c>
-      <c r="B95" s="23" t="s">
-        <v>121</v>
+      <c r="B95" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G95" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="23" t="s">
-        <v>121</v>
+        <f>+$F$2&amp;B95&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.9.mp3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G96" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="23" t="s">
-        <v>122</v>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G97" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <f>VLOOKUP(D98,Sheet2!A:B,2,0)</f>
         <v>31</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>122</v>
+      <c r="B98" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G98" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
-        <v>122</v>
+        <f>+$F$2&amp;B98&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.10.mp3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G99" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
-        <v>123</v>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E100" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G100" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <f>VLOOKUP(D101,Sheet2!A:B,2,0)</f>
         <v>32</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>123</v>
+      <c r="B101" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G101" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="23" t="s">
-        <v>123</v>
+        <f>+$F$2&amp;B101&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-3.11.mp3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G102" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="23">
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="21">
         <v>4</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G103" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="23" t="s">
-        <v>124</v>
+        <v>262</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F104" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G104" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="19"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <f>VLOOKUP(D105,Sheet2!A:B,2,0)</f>
         <v>33</v>
       </c>
-      <c r="B105" s="23" t="s">
-        <v>124</v>
+      <c r="B105" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G105" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="23" t="s">
-        <v>124</v>
+        <f>+$F$2&amp;B105&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-4.1.mp3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G106" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
-        <v>125</v>
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E107" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G107" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <f>VLOOKUP(D108,Sheet2!A:B,2,0)</f>
         <v>34</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>125</v>
+      <c r="B108" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E108" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G108" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="23" t="s">
-        <v>125</v>
+        <f>+$F$2&amp;B108&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-4.2.mp3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E109" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G109" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="23" t="s">
-        <v>126</v>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G110" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <f>VLOOKUP(D111,Sheet2!A:B,2,0)</f>
         <v>35</v>
       </c>
-      <c r="B111" s="23" t="s">
-        <v>126</v>
+      <c r="B111" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G111" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="23" t="s">
-        <v>126</v>
+        <f>+$F$2&amp;B111&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-4.3.mp3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G112" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="23" t="s">
-        <v>127</v>
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E113" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G113" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <f>VLOOKUP(D114,Sheet2!A:B,2,0)</f>
         <v>36</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>127</v>
+      <c r="B114" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E114" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G114" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="23" t="s">
-        <v>127</v>
+        <f>+$F$2&amp;B114&amp;".mp3"</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-4.4.mp3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E115" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G115" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="F115" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H115" xr:uid="{409C9D1B-A452-401C-9733-8750E50DAAFC}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Eng"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:F115" xr:uid="{409C9D1B-A452-401C-9733-8750E50DAAFC}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FA123414-9045-424C-8144-6BB041CC28D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C180291B-7D61-4F66-87A2-BCE4B8C6F943}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" customWidth="1"/>
-    <col min="5" max="5" width="74.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IF(D3="","","https://docs.google.com/uc?export=download&amp;id="&amp;D3)</f>
-        <v/>
-      </c>
-      <c r="D3" s="26" t="str">
-        <f t="shared" ref="D3" si="0">IFERROR(LEFT(RIGHT(E3,LEN(E3)-32),LEN(RIGHT(E3,LEN(E3)-32))-20),"")</f>
-        <v/>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+        <f>+$C$1&amp;B3</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-Viet-1.1-1.14.mp3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>287</v>
+      </c>
       <c r="C4" s="6" t="str">
-        <f t="shared" ref="C4:C11" si="1">IF(D4="","","https://docs.google.com/uc?export=download&amp;id="&amp;D4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="26" t="str">
-        <f t="shared" ref="D4:D9" si="2">IFERROR(LEFT(RIGHT(E4,LEN(E4)-32),LEN(RIGHT(E4,LEN(E4)-32))-20),"")</f>
-        <v/>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+        <f t="shared" ref="C4:C12" si="0">+$C$1&amp;B4</f>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-Viet-2.1-2.7.mp3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>288</v>
+      </c>
       <c r="C5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-Viet-3.1-3.11.mp3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>289</v>
+      </c>
       <c r="C6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-Viet-4.1-4.4.mp3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>290</v>
+      </c>
       <c r="C7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners-Viet-full.mp3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>292</v>
+      </c>
       <c r="C8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners.mp3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>293</v>
+      </c>
       <c r="C9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners.mp4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="C10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D10" s="26" t="str">
-        <f t="shared" ref="D10:D11" si="3">IFERROR(LEFT(RIGHT(E10,LEN(E10)-32),LEN(RIGHT(E10,LEN(E10)-32))-20),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners.docx</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>294</v>
+      </c>
       <c r="C11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D11" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="27" t="str">
-        <f>IF(D15="","","https://drive.google.com/uc?export=download&amp;id="&amp;D15)</f>
-        <v/>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f t="shared" ref="D15:D16" si="4">IFERROR(LEFT(RIGHT(E15,LEN(E15)-32),LEN(RIGHT(E15,LEN(E15)-32))-20),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="27" t="str">
-        <f>IF(D16="","","https://docs.google.com/uc?export=download&amp;id="&amp;D16)</f>
-        <v/>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="27" t="str">
-        <f>IF(D17="","","https://drive.google.com/uc?export=download&amp;id="&amp;D17)</f>
-        <v/>
-      </c>
-      <c r="D17" s="30" t="str">
-        <f>IFERROR(LEFT(RIGHT(E17,LEN(E17)-35),LEN(RIGHT(E17,LEN(E17)-35))-63),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="27" t="str">
-        <f>IF(D18="","","https://drive.google.com/uc?export=download&amp;id="&amp;D18)</f>
-        <v/>
-      </c>
-      <c r="D18" s="30" t="str">
-        <f>IFERROR(LEFT(RIGHT(E18,LEN(E18)-39),LEN(RIGHT(E18,LEN(E18)-39))-63),"")</f>
-        <v/>
-      </c>
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners.xlsx</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://luandai123.github.io/english_Business-WelcomeGuestspartners/WelcomeGuestspartners.pdf</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{9F84276F-E700-4670-B5AB-3F36D02EF957}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C16" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4403,7 +3620,7 @@
         <f>IF(D3="","","https://docs.google.com/uc?export=download&amp;id="&amp;D3)</f>
         <v/>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="24" t="str">
         <f t="shared" ref="D3:D4" si="0">IFERROR(LEFT(RIGHT(E3,LEN(E3)-32),LEN(RIGHT(E3,LEN(E3)-32))-20),"")</f>
         <v/>
       </c>
@@ -4417,7 +3634,7 @@
         <f>IF(D4="","","https://docs.google.com/uc?export=download&amp;id="&amp;D4)</f>
         <v/>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4486,23 +3703,23 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" ca="1" si="0">IF(A4="","",RANDBETWEEN($C$1,$C$2))</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B4,$B$4:$B$39)+COUNTIF(B$4:$B4,B4)-1,"")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C4,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.2</v>
+        <v>1.10</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">IFERROR(VLOOKUP(D4&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Đây là lần đầu bạn đến ABC hả?</v>
+        <v>Ông tới đây bằng gì?</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">IFERROR(VLOOKUP(D4&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Is this your first time in ABC?</v>
+        <v>How did you get here?</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4512,23 +3729,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B5,$B$4:$B$39)+COUNTIF(B$4:$B5,B5)-1,"")</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C5,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.3</v>
+        <v>1.11</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">IFERROR(VLOOKUP(D5&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tôi xin lỗi, ông A vừa kết thúc cuộc họp xong, ông ấy sẽ gặp ông ngay trong vòng 5 phút.</v>
+        <v>Ông ở đâu?</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">IFERROR(VLOOKUP(D5&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Mr. A is just finishing off a meeting, he will be with you in about 5 minutes.</v>
+        <v>Where are you staying?</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4538,23 +3755,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B6,$B$4:$B$39)+COUNTIF(B$4:$B6,B6)-1,"")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C6,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">IFERROR(VLOOKUP(D6&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Hãy theo tôi đến phòng hội nghị.</v>
+        <v>Ông có thể đợi trong văn phòng của tôi một vài phút được không?</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">IFERROR(VLOOKUP(D6&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Please follow me to the conference room.</v>
+        <v>Would you mind waiting in my office for a few minutes?</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4564,23 +3781,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B7,$B$4:$B$39)+COUNTIF(B$4:$B7,B7)-1,"")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C7,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">IFERROR(VLOOKUP(D7&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Chuyến đi của ông tốt đẹp chứ?</v>
+        <v>Ông có khó khăn gì khi tìm thấy công ty chúng tôi không?</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">IFERROR(VLOOKUP(D7&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Did you have a good trip?</v>
+        <v>Did you have any trouble finding us?</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4590,23 +3807,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B8,$B$4:$B$39)+COUNTIF(B$4:$B8,B8)-1,"")</f>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C8,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">IFERROR(VLOOKUP(D8&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông có thể để vali tại quầy tiếp tân.</v>
+        <v>Bạn từng đến ABC trước kia chưa?</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">IFERROR(VLOOKUP(D8&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>You can leave your briefcase at the reception desk.</v>
+        <v>Have you been to ABC before?</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4616,23 +3833,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B9,$B$4:$B$39)+COUNTIF(B$4:$B9,B9)-1,"")</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C9,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E9" t="str">
         <f ca="1">IFERROR(VLOOKUP(D9&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tôi xin lỗi, ông A đang nghe điện thoại, một lát nữa ông ấy sẽ gặp bạn ngay.</v>
+        <v>Tài xế có ở sân bay để đón ông không?</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">IFERROR(VLOOKUP(D9&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>I’m sorry. Mr. A is on the phone right now, he will be with you shortly.</v>
+        <v>Was the driver there to meet you at the airport?</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4642,7 +3859,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B10,$B$4:$B$39)+COUNTIF(B$4:$B10,B10)-1,"")</f>
@@ -4668,23 +3885,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B11,$B$4:$B$39)+COUNTIF(B$4:$B11,B11)-1,"")</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C11,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.6</v>
+        <v>1.13</v>
       </c>
       <c r="E11" t="str">
         <f ca="1">IFERROR(VLOOKUP(D11&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Chúng tôi đã đặt phòng hội nghi ở tầng 6, nên chúng ta sẽ đi thang máy.</v>
+        <v>Bạn có thời gian để đi xem xung quanh ABC khi bạn ở đây không?</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">IFERROR(VLOOKUP(D11&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>We have booked a conference room on the 6th floor, so we need to take the lift.</v>
+        <v>Will you have time to look around ABC while you are here?</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4694,23 +3911,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B12,$B$4:$B$39)+COUNTIF(B$4:$B12,B12)-1,"")</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C12,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="E12" t="str">
         <f ca="1">IFERROR(VLOOKUP(D12&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Đi theo lối này ạ!</v>
+        <v>Đây là lần đầu bạn đến ABC hả?</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">IFERROR(VLOOKUP(D12&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>This way, please!</v>
+        <v>Is this your first time in ABC?</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -4721,23 +3938,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B13,$B$4:$B$39)+COUNTIF(B$4:$B13,B13)-1,"")</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C13,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="E13" t="str">
         <f ca="1">IFERROR(VLOOKUP(D13&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tôi là ABC là trợ lý của ông A, hân hạnh khi gặp ông</v>
+        <v>Ông có thể để lại đồ của ông tại quầy tiếp tân.</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">IFERROR(VLOOKUP(D13&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Hi, I’m ABC, Mr. A’ assistant, nice to meet you</v>
+        <v>You can leave your things at the reception desk.</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4747,23 +3964,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B14,$B$4:$B$39)+COUNTIF(B$4:$B14,B14)-1,"")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C14,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="E14" t="str">
         <f ca="1">IFERROR(VLOOKUP(D14&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Nó thế nào? Có thoải mái không?</v>
+        <v>Xin lỗi vì làm bạn phải chờ, đúng là 1 buổi sáng bận rộn.</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">IFERROR(VLOOKUP(D14&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>How is it? Is it comfortable?</v>
+        <v>Sorry to keep you waiting, it’s been a very busy morning.</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4773,23 +3990,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B15,$B$4:$B$39)+COUNTIF(B$4:$B15,B15)-1,"")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C15,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">IFERROR(VLOOKUP(D15&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông ở đâu?</v>
+        <v>Tôi là ABC là trợ lý của ông A, hân hạnh khi gặp ông</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">IFERROR(VLOOKUP(D15&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Where are you staying?</v>
+        <v>Hi, I’m ABC, Mr. A’ assistant, nice to meet you</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4799,23 +4016,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B16,$B$4:$B$39)+COUNTIF(B$4:$B16,B16)-1,"")</f>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C16,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E16" t="str">
         <f ca="1">IFERROR(VLOOKUP(D16&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Cho phép tôi giới thiệu bản thân, tôi là...., xin lỗi đã làm ông phải chờ</v>
+        <v>Ông có thể để vali tại quầy tiếp tân.</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">IFERROR(VLOOKUP(D16&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>May I introduce myself, I’m..., I’m sorry to keep you waiting.</v>
+        <v>You can leave your briefcase at the reception desk.</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,23 +4042,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B17,$B$4:$B$39)+COUNTIF(B$4:$B17,B17)-1,"")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C17,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.13</v>
+        <v>2.3</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">IFERROR(VLOOKUP(D17&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Bạn có thời gian để đi xem xung quanh ABC khi bạn ở đây không?</v>
+        <v>Tôi xin lỗi, ông A vừa kết thúc cuộc họp xong, ông ấy sẽ gặp ông ngay trong vòng 5 phút.</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">IFERROR(VLOOKUP(D17&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Will you have time to look around ABC while you are here?</v>
+        <v>Mr. A is just finishing off a meeting, he will be with you in about 5 minutes.</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,23 +4068,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B18,$B$4:$B$39)+COUNTIF(B$4:$B18,B18)-1,"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C18,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E18" t="str">
         <f ca="1">IFERROR(VLOOKUP(D18&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Xin lỗi vì làm bạn phải chờ, đúng là 1 buổi sáng bận rộn.</v>
+        <v>Cho phép tôi giới thiệu bản thân, tôi là...., xin lỗi đã làm ông phải chờ</v>
       </c>
       <c r="F18" t="str">
         <f ca="1">IFERROR(VLOOKUP(D18&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Sorry to keep you waiting, it’s been a very busy morning.</v>
+        <v>May I introduce myself, I’m..., I’m sorry to keep you waiting.</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,23 +4094,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B19,$B$4:$B$39)+COUNTIF(B$4:$B19,B19)-1,"")</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C19,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">IFERROR(VLOOKUP(D19&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông có khó khăn gì khi tìm thấy công ty chúng tôi không?</v>
+        <v>Tôi xin lỗi, ông A đang nghe điện thoại, một lát nữa ông ấy sẽ gặp bạn ngay.</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">IFERROR(VLOOKUP(D19&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Did you have any trouble finding us?</v>
+        <v>I’m sorry. Mr. A is on the phone right now, he will be with you shortly.</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4903,23 +4120,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B20,$B$4:$B$39)+COUNTIF(B$4:$B20,B20)-1,"")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C20,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">IFERROR(VLOOKUP(D20&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông có thể để lại đồ của ông tại quầy tiếp tân.</v>
+        <v>Chúng tôi đã đặt phòng hội nghi ở tầng 6, nên chúng ta sẽ đi thang máy.</v>
       </c>
       <c r="F20" t="str">
         <f ca="1">IFERROR(VLOOKUP(D20&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>You can leave your things at the reception desk.</v>
+        <v>We have booked a conference room on the 6th floor, so we need to take the lift.</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,23 +4146,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B21,$B$4:$B$39)+COUNTIF(B$4:$B21,B21)-1,"")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C21,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.10</v>
+        <v>1.9</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">IFERROR(VLOOKUP(D21&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông tới đây bằng gì?</v>
+        <v>Tôi không chắc là ông có thể tự tìm ra văn phòng của chúng tôi.</v>
       </c>
       <c r="F21" t="str">
         <f ca="1">IFERROR(VLOOKUP(D21&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>How did you get here?</v>
+        <v>I wasn’t sure you would be able to find my office by yourself.</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,23 +4172,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B22,$B$4:$B$39)+COUNTIF(B$4:$B22,B22)-1,"")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C22,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="E22" t="str">
         <f ca="1">IFERROR(VLOOKUP(D22&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tài xế có ở sân bay để đón ông không?</v>
+        <v>Chuyến đi của ông tốt đẹp chứ?</v>
       </c>
       <c r="F22" t="str">
         <f ca="1">IFERROR(VLOOKUP(D22&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Was the driver there to meet you at the airport?</v>
+        <v>Did you have a good trip?</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4981,23 +4198,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B23,$B$4:$B$39)+COUNTIF(B$4:$B23,B23)-1,"")</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C23,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="E23" t="str">
         <f ca="1">IFERROR(VLOOKUP(D23&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tôi không chắc là ông có thể tự tìm ra văn phòng của chúng tôi.</v>
+        <v>Đi theo lối này ạ!</v>
       </c>
       <c r="F23" t="str">
         <f ca="1">IFERROR(VLOOKUP(D23&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>I wasn’t sure you would be able to find my office by yourself.</v>
+        <v>This way, please!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5007,23 +4224,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B24,$B$4:$B$39)+COUNTIF(B$4:$B24,B24)-1,"")</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C24,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="E24" t="str">
         <f ca="1">IFERROR(VLOOKUP(D24&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Ông có thể đợi trong văn phòng của tôi một vài phút được không?</v>
+        <v>Tôi sẽ xem thử cô ấy có thể gặp bạn ngay được không.</v>
       </c>
       <c r="F24" t="str">
         <f ca="1">IFERROR(VLOOKUP(D24&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Would you mind waiting in my office for a few minutes?</v>
+        <v>I’ll see if she can meet with you right now.</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,19 +4254,19 @@
       </c>
       <c r="C25" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B25,$B$4:$B$39)+COUNTIF(B$4:$B25,B25)-1,"")</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C25,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>2.1</v>
+        <v>1.12</v>
       </c>
       <c r="E25" t="str">
         <f ca="1">IFERROR(VLOOKUP(D25&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Tôi sẽ xem thử cô ấy có thể gặp bạn ngay được không.</v>
+        <v>Nó thế nào? Có thoải mái không?</v>
       </c>
       <c r="F25" t="str">
         <f ca="1">IFERROR(VLOOKUP(D25&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>I’ll see if she can meet with you right now.</v>
+        <v>How is it? Is it comfortable?</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,23 +4276,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <f ca="1">IFERROR($C$1-1+_xlfn.RANK.EQ(B26,$B$4:$B$39)+COUNTIF(B$4:$B26,B26)-1,"")</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="str">
         <f ca="1">IFERROR(VLOOKUP(C26,'Welcome guestspartners'!A:B,2,0),"")</f>
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="str">
         <f ca="1">IFERROR(VLOOKUP(D26&amp;"Viet",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Bạn từng đến ABC trước kia chưa?</v>
+        <v>Hãy theo tôi đến phòng hội nghị.</v>
       </c>
       <c r="F26" t="str">
         <f ca="1">IFERROR(VLOOKUP(D26&amp;"Eng",'Welcome guestspartners'!C:D,2,0),"")</f>
-        <v>Have you been to ABC before?</v>
+        <v>Please follow me to the conference room.</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10253,22 +9470,22 @@
         <v>1Struc</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B66" si="0">A3&amp;D3</f>
         <v>1.1Viet</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -10276,14 +9493,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.1Eng</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -10291,14 +9508,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.1Phon</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -10306,14 +9523,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.2Viet</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -10321,14 +9538,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.2Eng</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -10336,14 +9553,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.2Phon</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -10351,14 +9568,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.3Viet</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -10366,14 +9583,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.3Eng</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -10381,14 +9598,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.3Phon</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -10396,14 +9613,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.4Viet</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -10411,14 +9628,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.4Eng</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -10426,14 +9643,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.4Phon</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -10441,14 +9658,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.5Viet</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -10456,14 +9673,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.5Eng</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -10471,14 +9688,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.5Phon</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -10486,14 +9703,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.6Viet</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -10501,14 +9718,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.6Eng</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -10516,14 +9733,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.6Phon</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -10531,14 +9748,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.7Viet</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -10546,14 +9763,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.7Eng</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -10561,14 +9778,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.7Phon</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -10576,14 +9793,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.8Viet</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -10591,14 +9808,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.8Eng</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -10606,14 +9823,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.8Phon</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -10621,14 +9838,14 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.9Viet</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -10636,14 +9853,14 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.9Eng</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -10651,14 +9868,14 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.9Phon</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -10666,14 +9883,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.10Viet</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -10681,14 +9898,14 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.10Eng</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -10696,14 +9913,14 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.10Phon</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -10711,14 +9928,14 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.11Viet</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -10726,14 +9943,14 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.11Eng</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -10741,14 +9958,14 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.11Phon</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -10756,14 +9973,14 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.12Viet</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -10771,14 +9988,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.12Eng</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -10786,14 +10003,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.12Phon</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -10801,14 +10018,14 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.13Viet</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -10816,14 +10033,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.13Eng</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -10831,14 +10048,14 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.13Phon</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -10846,14 +10063,14 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.14Viet</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -10861,14 +10078,14 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.14Eng</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -10876,14 +10093,14 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1.14Phon</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -10898,22 +10115,22 @@
         <v>2Struc</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.1Viet</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -10921,14 +10138,14 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.1Eng</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -10936,14 +10153,14 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.1Phon</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -10951,14 +10168,14 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.2Viet</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -10966,14 +10183,14 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.2Eng</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -10981,14 +10198,14 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.2Phon</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -10996,14 +10213,14 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.3Viet</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -11011,14 +10228,14 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.3Eng</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -11026,14 +10243,14 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.3Phon</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -11041,14 +10258,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.4Viet</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -11056,14 +10273,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.4Eng</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -11071,14 +10288,14 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.4Phon</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -11086,14 +10303,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.5Viet</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -11101,14 +10318,14 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.5Eng</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -11116,14 +10333,14 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.5Phon</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -11131,14 +10348,14 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.6Viet</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -11146,14 +10363,14 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.6Eng</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -11161,14 +10378,14 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.6Phon</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -11176,14 +10393,14 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.7Viet</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -11191,14 +10408,14 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.7Eng</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -11206,14 +10423,14 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.7Phon</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -11228,22 +10445,22 @@
         <v>3Struc</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.1Viet</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -11251,14 +10468,14 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.1Eng</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -11266,14 +10483,14 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.1Phon</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -11281,14 +10498,14 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.2Viet</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -11296,14 +10513,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.2Eng</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -11311,14 +10528,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.2Phon</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -11326,14 +10543,14 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.3Viet</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -11341,14 +10558,14 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.3Eng</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -11356,14 +10573,14 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.3Phon</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -11371,14 +10588,14 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.4Viet</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -11386,14 +10603,14 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.4Eng</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -11401,14 +10618,14 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.4Phon</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -11416,14 +10633,14 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.5Viet</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -11431,14 +10648,14 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.5Eng</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -11446,14 +10663,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.5Phon</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -11461,14 +10678,14 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.6Viet</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -11476,14 +10693,14 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.6Eng</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -11491,14 +10708,14 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.6Phon</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -11506,14 +10723,14 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.7Viet</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -11521,14 +10738,14 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.7Eng</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -11536,14 +10753,14 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.7Phon</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -11551,14 +10768,14 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.8Viet</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -11566,14 +10783,14 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.8Eng</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -11581,14 +10798,14 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.8Phon</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -11596,14 +10813,14 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.9Viet</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -11611,14 +10828,14 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.9Eng</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -11626,14 +10843,14 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.9Phon</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -11641,14 +10858,14 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.10Viet</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -11656,14 +10873,14 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.10Eng</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -11671,14 +10888,14 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.10Phon</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -11686,14 +10903,14 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.11Viet</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -11701,14 +10918,14 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.11Eng</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -11716,14 +10933,14 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3.11Phon</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -11738,22 +10955,22 @@
         <v>4Struc</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.1Viet</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -11761,14 +10978,14 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.1Eng</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -11776,14 +10993,14 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.1Phon</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -11791,14 +11008,14 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.2Viet</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -11806,14 +11023,14 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.2Eng</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -11821,14 +11038,14 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.2Phon</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -11836,14 +11053,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.3Viet</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -11851,14 +11068,14 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.3Eng</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -11866,14 +11083,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.3Phon</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -11881,14 +11098,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.4Viet</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -11896,14 +11113,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.4Eng</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -11911,14 +11128,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4.4Phon</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -11946,7 +11163,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -11954,7 +11171,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11962,7 +11179,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -11970,7 +11187,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -11978,7 +11195,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -11986,7 +11203,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -11994,7 +11211,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -12002,7 +11219,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -12010,7 +11227,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -12018,7 +11235,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -12026,7 +11243,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12034,7 +11251,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -12042,7 +11259,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -12050,7 +11267,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -12058,7 +11275,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -12066,7 +11283,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -12074,7 +11291,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -12082,7 +11299,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -12090,7 +11307,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -12098,7 +11315,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -12106,7 +11323,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -12114,7 +11331,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -12122,7 +11339,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -12130,7 +11347,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -12138,7 +11355,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -12146,7 +11363,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -12154,7 +11371,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -12162,7 +11379,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -12170,7 +11387,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -12178,7 +11395,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12186,7 +11403,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -12194,7 +11411,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -12202,7 +11419,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -12210,7 +11427,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -12218,7 +11435,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -12226,7 +11443,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -12249,47 +11466,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
